--- a/Clue Layout.xlsx
+++ b/Clue Layout.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="51">
   <si>
     <t>C</t>
   </si>
@@ -54,9 +54,6 @@
     <t>C = Conservatory</t>
   </si>
   <si>
-    <t>CD</t>
-  </si>
-  <si>
     <t>RD</t>
   </si>
   <si>
@@ -162,10 +159,16 @@
     <t>SL</t>
   </si>
   <si>
-    <t>OU</t>
-  </si>
-  <si>
     <t>Light Purple: adjacency list tests, only walkways as locations</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>OL</t>
   </si>
 </sst>
 </file>
@@ -181,7 +184,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,12 +241,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.24994659260841701"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
@@ -256,8 +253,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778862885"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -325,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,9 +362,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -739,11 +733,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -752,7 +744,7 @@
     <col min="26" max="257" width="4.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -771,7 +763,7 @@
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -789,7 +781,7 @@
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -819,11 +811,14 @@
       <c r="V1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,16 +888,19 @@
       <c r="W2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -920,10 +918,10 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>2</v>
@@ -935,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>3</v>
@@ -959,16 +957,19 @@
         <v>4</v>
       </c>
       <c r="V3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -987,7 +988,7 @@
       <c r="F4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1005,7 +1006,7 @@
       <c r="L4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -1041,8 +1042,11 @@
       <c r="Y4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1053,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
@@ -1068,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>2</v>
@@ -1104,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>4</v>
@@ -1113,10 +1117,13 @@
         <v>4</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="AA5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1126,7 +1133,7 @@
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1162,7 +1169,7 @@
       <c r="O6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="15" t="s">
         <v>7</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -1187,971 +1194,1013 @@
         <v>4</v>
       </c>
       <c r="Y6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="K8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="L8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="M8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="N8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="O8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="P8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="S8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="T8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="U8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="W8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="Y8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="S9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y8" s="4" t="s">
+      <c r="T9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y9" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="AA9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="K10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="L10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="M10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="N10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="O10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="P10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="T10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="U10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="V10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="W10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="Y10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="T11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y9" s="4" t="s">
+      <c r="U11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA18">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5" t="s">
+    </row>
+    <row r="19" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA19">
         <v>18</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R11" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="W14" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="T16" s="1" t="s">
+    </row>
+    <row r="20" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>1</v>
@@ -2160,223 +2209,278 @@
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="U20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="AA20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S20" s="1" t="s">
+      <c r="U21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="U22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="V22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
+      <c r="AA22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>0</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>3</v>
+      </c>
+      <c r="E23" s="8">
+        <v>4</v>
+      </c>
+      <c r="F23" s="8">
+        <v>5</v>
+      </c>
+      <c r="G23" s="8">
+        <v>6</v>
+      </c>
+      <c r="H23" s="8">
+        <v>7</v>
+      </c>
+      <c r="I23" s="8">
+        <v>8</v>
+      </c>
+      <c r="J23" s="8">
+        <v>9</v>
+      </c>
+      <c r="K23" s="8">
+        <v>10</v>
+      </c>
+      <c r="L23" s="8">
+        <v>11</v>
+      </c>
+      <c r="M23" s="8">
+        <v>12</v>
+      </c>
+      <c r="N23" s="8">
+        <v>13</v>
+      </c>
+      <c r="O23" s="8">
+        <v>14</v>
+      </c>
+      <c r="P23" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>16</v>
+      </c>
+      <c r="R23" s="8">
+        <v>17</v>
+      </c>
+      <c r="S23" s="8">
+        <v>18</v>
+      </c>
+      <c r="T23" s="8">
+        <v>19</v>
+      </c>
+      <c r="U23" s="8">
+        <v>20</v>
+      </c>
+      <c r="V23" s="8">
+        <v>21</v>
+      </c>
+      <c r="W23" s="8">
+        <v>22</v>
+      </c>
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2403,9 +2507,9 @@
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2432,9 +2536,9 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2461,9 +2565,9 @@
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2490,9 +2594,9 @@
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -2519,9 +2623,9 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -2548,9 +2652,9 @@
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2577,7 +2681,7 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2604,7 +2708,7 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>

--- a/Clue Layout.xlsx
+++ b/Clue Layout.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="-80" yWindow="-760" windowWidth="33580" windowHeight="20380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="130407" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -171,14 +176,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="14">
@@ -375,7 +390,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -738,21 +753,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W22" sqref="S17:W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="24" width="4.28515625"/>
-    <col min="25" max="25" width="31.28515625"/>
-    <col min="26" max="257" width="4.28515625"/>
+    <col min="1" max="23" width="5" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="45.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="18.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -823,7 +838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,7 +909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -967,8 +982,11 @@
       <c r="Y3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA3" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="18.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,8 +1059,11 @@
       <c r="Y4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA4" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="18.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,8 +1136,11 @@
       <c r="Y5" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA5" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="18.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1189,8 +1213,11 @@
       <c r="Y6" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA6" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="18.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1263,8 +1290,11 @@
       <c r="Y7" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA7" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="18.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1337,8 +1367,11 @@
       <c r="Y8" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA8" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="18.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1411,8 +1444,11 @@
       <c r="Y9" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="18.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1486,7 +1522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="18.75" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>17</v>
       </c>
@@ -1560,7 +1596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="18.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1634,7 +1670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="18.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -1708,7 +1744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="18.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -1779,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="18.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1850,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="18.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -1921,7 +1957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="18.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1992,7 +2028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="18.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -2063,7 +2099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="18.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -2134,7 +2170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="18.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -2205,7 +2241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="18.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2276,7 +2312,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="18.75" customHeight="1">
       <c r="A22" s="15" t="s">
         <v>31</v>
       </c>
@@ -2347,7 +2383,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2374,10 +2410,7 @@
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>35</v>
-      </c>
+    <row r="24" spans="1:25">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2403,10 +2436,7 @@
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>36</v>
-      </c>
+    <row r="25" spans="1:25">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2432,10 +2462,7 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>38</v>
-      </c>
+    <row r="26" spans="1:25">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2461,10 +2488,7 @@
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>37</v>
-      </c>
+    <row r="27" spans="1:25">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2490,10 +2514,7 @@
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>49</v>
-      </c>
+    <row r="28" spans="1:25">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2519,10 +2540,7 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>39</v>
-      </c>
+    <row r="29" spans="1:25">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -2548,10 +2566,7 @@
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>40</v>
-      </c>
+    <row r="30" spans="1:25">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2577,7 +2592,7 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2604,7 +2619,7 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2631,7 +2646,7 @@
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2658,7 +2673,7 @@
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2685,7 +2700,7 @@
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2712,7 +2727,7 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -2739,7 +2754,7 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -2766,7 +2781,7 @@
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -2793,7 +2808,7 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2820,7 +2835,7 @@
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -2847,7 +2862,7 @@
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -2874,7 +2889,7 @@
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2901,7 +2916,7 @@
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2928,7 +2943,7 @@
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -2955,7 +2970,7 @@
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2982,7 +2997,7 @@
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3009,7 +3024,7 @@
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3036,7 +3051,7 @@
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3063,7 +3078,7 @@
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -3090,7 +3105,7 @@
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -3117,7 +3132,7 @@
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -3144,7 +3159,7 @@
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -3171,7 +3186,7 @@
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -3198,7 +3213,7 @@
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -3225,7 +3240,7 @@
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -3252,7 +3267,7 @@
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -3279,7 +3294,7 @@
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -3306,7 +3321,7 @@
       <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -3333,7 +3348,7 @@
       <c r="X58" s="8"/>
       <c r="Y58" s="8"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -3360,7 +3375,7 @@
       <c r="X59" s="8"/>
       <c r="Y59" s="8"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -3387,7 +3402,7 @@
       <c r="X60" s="8"/>
       <c r="Y60" s="8"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -3414,7 +3429,7 @@
       <c r="X61" s="8"/>
       <c r="Y61" s="8"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -3441,7 +3456,7 @@
       <c r="X62" s="8"/>
       <c r="Y62" s="8"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -3468,7 +3483,7 @@
       <c r="X63" s="8"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -3495,7 +3510,7 @@
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -3522,7 +3537,7 @@
       <c r="X65" s="8"/>
       <c r="Y65" s="8"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -3549,7 +3564,7 @@
       <c r="X66" s="8"/>
       <c r="Y66" s="8"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -3576,7 +3591,7 @@
       <c r="X67" s="8"/>
       <c r="Y67" s="8"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -3603,7 +3618,7 @@
       <c r="X68" s="8"/>
       <c r="Y68" s="8"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -3630,7 +3645,7 @@
       <c r="X69" s="8"/>
       <c r="Y69" s="8"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -3657,7 +3672,7 @@
       <c r="X70" s="8"/>
       <c r="Y70" s="8"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -3684,7 +3699,7 @@
       <c r="X71" s="8"/>
       <c r="Y71" s="8"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -3711,7 +3726,7 @@
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -3738,7 +3753,7 @@
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -3765,7 +3780,7 @@
       <c r="X74" s="8"/>
       <c r="Y74" s="8"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -3793,43 +3808,51 @@
       <c r="Y75" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCellId="1" sqref="Y3:Y13 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="257" width="8.5703125"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCellId="1" sqref="Y3:Y13 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="257" width="8.5703125"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>